--- a/_xlsx设计/test.xlsx
+++ b/_xlsx设计/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,14 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VarClass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,6 +212,9 @@
   <si>
     <t>editor</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]]</t>
   </si>
 </sst>
 </file>
@@ -625,40 +620,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -680,23 +675,20 @@
       <c r="G1" s="2">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -709,20 +701,20 @@
       <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -733,7 +725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -747,19 +739,19 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4">
+        <v>50</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4">
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -776,19 +768,19 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5">
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -891,13 +883,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -969,26 +961,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="b">
         <v>1</v>
@@ -996,7 +988,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="b">
         <v>1</v>
@@ -1007,7 +999,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>1</v>
